--- a/docs/routing table.xlsx
+++ b/docs/routing table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazua\Documents\search-engine\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE474D64-4972-416D-96E1-5F129C8455E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386F46E4-1D6D-491A-8171-A75F69A822D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CEBD8324-F3AE-49AE-84A2-C0B1C3676B37}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Untuk mendapatkan ranking halaman menggunakan metode TF IDF</t>
   </si>
   <si>
-    <t>keyword</t>
-  </si>
-  <si>
     <t>Get Page-Rank Page Ranking</t>
   </si>
   <si>
@@ -128,6 +125,33 @@
   </si>
   <si>
     <t>/api/v1.0/crawling/pages</t>
+  </si>
+  <si>
+    <t>keyword, start, length</t>
+  </si>
+  <si>
+    <t>Get Specific Page Information</t>
+  </si>
+  <si>
+    <t>/api/v1.0/crawling/page_information</t>
+  </si>
+  <si>
+    <t>Untuk mendapatkan informasi lengkap halaman dari page id</t>
+  </si>
+  <si>
+    <t>id_pages</t>
+  </si>
+  <si>
+    <t>Get Similarity Overall Ranking</t>
+  </si>
+  <si>
+    <t>/api/v1.0/overall_ranking/similarity</t>
+  </si>
+  <si>
+    <t>Untuk mendapatkan ranking halaman secara overall dari pengintegrasian TF IDF dan Page Rank</t>
+  </si>
+  <si>
+    <t>keyword, sort, start, length</t>
   </si>
 </sst>
 </file>
@@ -196,10 +220,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,20 +539,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7843D-BB13-476B-AAF2-F19FE6D1730B}">
-  <dimension ref="C6:I16"/>
+  <dimension ref="C6:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="63.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
@@ -587,123 +612,163 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+    <row r="11" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+    <row r="12" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
-        <v>17</v>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="4" t="s">
+    </row>
+    <row r="16" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="3" t="s">
+    </row>
+    <row r="17" spans="4:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="126" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/routing table.xlsx
+++ b/docs/routing table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazua\Documents\search-engine\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386F46E4-1D6D-491A-8171-A75F69A822D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AE8069-FCE2-4E43-88BC-E1CCAE4504B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CEBD8324-F3AE-49AE-84A2-C0B1C3676B37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CEBD8324-F3AE-49AE-84A2-C0B1C3676B37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>keyword, sort, start, length</t>
+  </si>
+  <si>
+    <t>Response Time</t>
   </si>
 </sst>
 </file>
@@ -215,14 +218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7843D-BB13-476B-AAF2-F19FE6D1730B}">
-  <dimension ref="C6:I18"/>
+  <dimension ref="D10:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,222 +556,269 @@
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+    <row r="10" spans="4:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+    <row r="11" spans="4:15" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+    <row r="12" spans="4:15" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+    <row r="13" spans="4:15" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
+    <row r="14" spans="4:15" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3" t="s">
+    <row r="15" spans="4:15" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>10</v>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3" t="s">
+    <row r="16" spans="4:15" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>31</v>
+      <c r="M16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="3" t="s">
+    <row r="17" spans="4:15" ht="252" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>18</v>
+      <c r="M17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="3" t="s">
+    <row r="18" spans="4:15" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="M18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/docs/routing table.xlsx
+++ b/docs/routing table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazua\Documents\search-engine\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AE8069-FCE2-4E43-88BC-E1CCAE4504B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67FB83E-0425-412E-8098-88E0C079B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CEBD8324-F3AE-49AE-84A2-C0B1C3676B37}"/>
   </bookViews>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7843D-BB13-476B-AAF2-F19FE6D1730B}">
   <dimension ref="D10:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:N18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
